--- a/TPs/TP1/TABLA20/AG_TP1_Torneo_s_Elitismo.xlsx
+++ b/TPs/TP1/TABLA20/AG_TP1_Torneo_s_Elitismo.xlsx
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9521223316960383</v>
+        <v>0.4607424937064567</v>
       </c>
       <c r="C2">
-        <v>0.0007721069122088128</v>
+        <v>0.007332506421495208</v>
       </c>
       <c r="D2">
-        <v>0.2976363820713394</v>
+        <v>0.161185543189924</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9521223389660732</v>
+        <v>0.4607578035639179</v>
       </c>
       <c r="C3">
-        <v>0.08608370544111335</v>
+        <v>0.04729456913408728</v>
       </c>
       <c r="D3">
-        <v>0.5373265172978131</v>
+        <v>0.3488427042801482</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9535863302376059</v>
+        <v>0.8626535183049239</v>
       </c>
       <c r="C4">
-        <v>0.6556982024734707</v>
+        <v>0.2996802715950019</v>
       </c>
       <c r="D4">
-        <v>0.7753749104974876</v>
+        <v>0.4848967468927199</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -444,13 +444,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9535863302376059</v>
+        <v>0.8626535234949505</v>
       </c>
       <c r="C5">
-        <v>0.6583485954504639</v>
+        <v>0.4607424937064567</v>
       </c>
       <c r="D5">
-        <v>0.8938183175842476</v>
+        <v>0.661833690431222</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -458,13 +458,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9535863302376059</v>
+        <v>0.8626535234949505</v>
       </c>
       <c r="C6">
-        <v>0.9497756236420973</v>
+        <v>0.8626535183049239</v>
       </c>
       <c r="D6">
-        <v>0.9529542957948254</v>
+        <v>0.8626535203809345</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -472,13 +472,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9536459330641281</v>
+        <v>0.8626544092597123</v>
       </c>
       <c r="C7">
-        <v>0.7249821909926839</v>
+        <v>0.8626535234949505</v>
       </c>
       <c r="D7">
-        <v>0.8621457629942169</v>
+        <v>0.8626536120714267</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -486,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9536451218070986</v>
+        <v>0.862880294116939</v>
       </c>
       <c r="C8">
-        <v>0.8354323696210519</v>
+        <v>0.8626535234949505</v>
       </c>
       <c r="D8">
-        <v>0.9415285250440257</v>
+        <v>0.8626765548630541</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -500,13 +500,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9842303863714889</v>
+        <v>0.8628811799981162</v>
       </c>
       <c r="C9">
-        <v>0.227013441156178</v>
+        <v>0.8626535234949505</v>
       </c>
       <c r="D9">
-        <v>0.811336795703349</v>
+        <v>0.8627220861636872</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -514,13 +514,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9844071977061511</v>
+        <v>0.8628811799981162</v>
       </c>
       <c r="C10">
-        <v>0.9534719063257614</v>
+        <v>0.8626544092597123</v>
       </c>
       <c r="D10">
-        <v>0.9689378105298753</v>
+        <v>0.8627903824225422</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -528,13 +528,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.984407319678522</v>
+        <v>0.8628811799981162</v>
       </c>
       <c r="C11">
-        <v>0.9534719063257614</v>
+        <v>0.8628811799981162</v>
       </c>
       <c r="D11">
-        <v>0.9812604355669732</v>
+        <v>0.8628811799981161</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -542,13 +542,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9844090901268158</v>
+        <v>0.8628811799981162</v>
       </c>
       <c r="C12">
-        <v>0.9842293219812658</v>
+        <v>0.8628811799981162</v>
       </c>
       <c r="D12">
-        <v>0.9843777203790051</v>
+        <v>0.8628811799981161</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -556,13 +556,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9844224590957084</v>
+        <v>0.8628811799981162</v>
       </c>
       <c r="C13">
-        <v>0.9824704354035696</v>
+        <v>0.8628807370574708</v>
       </c>
       <c r="D13">
-        <v>0.9842160293080514</v>
+        <v>0.8628811357040517</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -570,13 +570,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9844224627918694</v>
+        <v>0.8628811799981162</v>
       </c>
       <c r="C14">
-        <v>0.9842879751754561</v>
+        <v>0.8628811799981162</v>
       </c>
       <c r="D14">
-        <v>0.9844034864409128</v>
+        <v>0.8628811799981161</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -584,13 +584,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9844225182342849</v>
+        <v>0.8628812353657048</v>
       </c>
       <c r="C15">
-        <v>0.984407319678522</v>
+        <v>0.8628811799981162</v>
       </c>
       <c r="D15">
-        <v>0.9844196145404922</v>
+        <v>0.862881185534875</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -598,13 +598,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.999986320780792</v>
+        <v>0.8628812353657048</v>
       </c>
       <c r="C16">
-        <v>0.984392180377751</v>
+        <v>0.8628811799981162</v>
       </c>
       <c r="D16">
-        <v>0.9875324109156518</v>
+        <v>0.8628812021451516</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -612,13 +612,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9999882243920222</v>
+        <v>0.8628812353657048</v>
       </c>
       <c r="C17">
-        <v>0.9843922432115224</v>
+        <v>0.8628812215238075</v>
       </c>
       <c r="D17">
-        <v>0.9920065388543493</v>
+        <v>0.8628812339815151</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -626,13 +626,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9999882281172905</v>
+        <v>0.8628812353657048</v>
       </c>
       <c r="C18">
-        <v>0.9844243515310421</v>
+        <v>0.8628812353657048</v>
       </c>
       <c r="D18">
-        <v>0.9984318382235046</v>
+        <v>0.8628812353657048</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -640,13 +640,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9999882281172905</v>
+        <v>0.8628812353657048</v>
       </c>
       <c r="C19">
-        <v>0.9384651584333195</v>
+        <v>0.8628812353657048</v>
       </c>
       <c r="D19">
-        <v>0.9891667585368145</v>
+        <v>0.8628812353657048</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -654,13 +654,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9999882281172905</v>
+        <v>0.8628812353657048</v>
       </c>
       <c r="C20">
-        <v>0.5624911707473857</v>
+        <v>0.8628812353657048</v>
       </c>
       <c r="D20">
-        <v>0.9515815671720207</v>
+        <v>0.8628812353657048</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -668,13 +668,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9999882281172905</v>
+        <v>0.8628812353657048</v>
       </c>
       <c r="C21">
-        <v>0.9689825526498502</v>
+        <v>0.8626544646200249</v>
       </c>
       <c r="D21">
-        <v>0.9906865254770583</v>
+        <v>0.8628585582911368</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -682,13 +682,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9999882281172905</v>
+        <v>0.8628812353657048</v>
       </c>
       <c r="C22">
-        <v>0.9995000093454839</v>
+        <v>0.8628812353657048</v>
       </c>
       <c r="D22">
-        <v>0.9998903891705725</v>
+        <v>0.8628812353657048</v>
       </c>
     </row>
   </sheetData>
